--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>43.99002066666666</v>
+        <v>76.16539233333333</v>
       </c>
       <c r="H2">
-        <v>131.970062</v>
+        <v>228.496177</v>
       </c>
       <c r="I2">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125765</v>
       </c>
       <c r="J2">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125764</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.59985066666667</v>
+        <v>39.02618766666667</v>
       </c>
       <c r="N2">
-        <v>73.79955200000001</v>
+        <v>117.078563</v>
       </c>
       <c r="O2">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="P2">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="Q2">
-        <v>1082.14793922358</v>
+        <v>2972.444894905961</v>
       </c>
       <c r="R2">
-        <v>9739.331453012224</v>
+        <v>26752.00405415365</v>
       </c>
       <c r="S2">
-        <v>0.2021781810603099</v>
+        <v>0.2847424648740132</v>
       </c>
       <c r="T2">
-        <v>0.2021781810603099</v>
+        <v>0.2847424648740132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>43.99002066666666</v>
+        <v>76.16539233333333</v>
       </c>
       <c r="H3">
-        <v>131.970062</v>
+        <v>228.496177</v>
       </c>
       <c r="I3">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125765</v>
       </c>
       <c r="J3">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125764</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.732698000000001</v>
       </c>
       <c r="O3">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322009</v>
       </c>
       <c r="P3">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322008</v>
       </c>
       <c r="Q3">
-        <v>113.3871816096973</v>
+        <v>196.3213256550607</v>
       </c>
       <c r="R3">
-        <v>1020.484634487276</v>
+        <v>1766.891930895546</v>
       </c>
       <c r="S3">
-        <v>0.02118417759946153</v>
+        <v>0.01880641026185428</v>
       </c>
       <c r="T3">
-        <v>0.02118417759946153</v>
+        <v>0.01880641026185428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>43.99002066666666</v>
+        <v>76.16539233333333</v>
       </c>
       <c r="H4">
-        <v>131.970062</v>
+        <v>228.496177</v>
       </c>
       <c r="I4">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125765</v>
       </c>
       <c r="J4">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.09598833333334</v>
+        <v>35.04673133333333</v>
       </c>
       <c r="N4">
-        <v>90.28796500000001</v>
+        <v>105.140194</v>
       </c>
       <c r="O4">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="P4">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="Q4">
-        <v>1323.923148767092</v>
+        <v>2669.34804200426</v>
       </c>
       <c r="R4">
-        <v>11915.30833890383</v>
+        <v>24024.13237803834</v>
       </c>
       <c r="S4">
-        <v>0.2473491510536124</v>
+        <v>0.2557075969312327</v>
       </c>
       <c r="T4">
-        <v>0.2473491510536124</v>
+        <v>0.2557075969312327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>43.99002066666666</v>
+        <v>76.16539233333333</v>
       </c>
       <c r="H5">
-        <v>131.970062</v>
+        <v>228.496177</v>
       </c>
       <c r="I5">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125765</v>
       </c>
       <c r="J5">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125764</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4574283333333333</v>
+        <v>2.050074333333333</v>
       </c>
       <c r="N5">
-        <v>1.372285</v>
+        <v>6.150223</v>
       </c>
       <c r="O5">
-        <v>0.007923466662817383</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="P5">
-        <v>0.007923466662817385</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="Q5">
-        <v>20.12228183685222</v>
+        <v>156.1447159108301</v>
       </c>
       <c r="R5">
-        <v>181.10053653167</v>
+        <v>1405.302443197471</v>
       </c>
       <c r="S5">
-        <v>0.003759454870354054</v>
+        <v>0.01495773104547626</v>
       </c>
       <c r="T5">
-        <v>0.003759454870354055</v>
+        <v>0.01495773104547626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>15.568867</v>
       </c>
       <c r="I6">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313545</v>
       </c>
       <c r="J6">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313544</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.59985066666667</v>
+        <v>39.02618766666667</v>
       </c>
       <c r="N6">
-        <v>73.79955200000001</v>
+        <v>117.078563</v>
       </c>
       <c r="O6">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="P6">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="Q6">
-        <v>127.6639344163982</v>
+        <v>202.5311750997912</v>
       </c>
       <c r="R6">
-        <v>1148.975409747584</v>
+        <v>1822.780575898121</v>
       </c>
       <c r="S6">
-        <v>0.02385150967974755</v>
+        <v>0.01940127674379289</v>
       </c>
       <c r="T6">
-        <v>0.02385150967974754</v>
+        <v>0.01940127674379289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.568867</v>
       </c>
       <c r="I7">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313545</v>
       </c>
       <c r="J7">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313544</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.732698000000001</v>
       </c>
       <c r="O7">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322009</v>
       </c>
       <c r="P7">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322008</v>
       </c>
       <c r="Q7">
         <v>13.37659407924067</v>
@@ -883,10 +883,10 @@
         <v>120.389346713166</v>
       </c>
       <c r="S7">
-        <v>0.002499155024647907</v>
+        <v>0.001281397806993701</v>
       </c>
       <c r="T7">
-        <v>0.002499155024647907</v>
+        <v>0.0012813978069937</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>15.568867</v>
       </c>
       <c r="I8">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313545</v>
       </c>
       <c r="J8">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313544</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.09598833333334</v>
+        <v>35.04673133333333</v>
       </c>
       <c r="N8">
-        <v>90.28796500000001</v>
+        <v>105.140194</v>
       </c>
       <c r="O8">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="P8">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="Q8">
-        <v>156.1868131984061</v>
+        <v>181.8792996377998</v>
       </c>
       <c r="R8">
-        <v>1405.681318785655</v>
+        <v>1636.913696740198</v>
       </c>
       <c r="S8">
-        <v>0.02918045181578078</v>
+        <v>0.0174229504396127</v>
       </c>
       <c r="T8">
-        <v>0.02918045181578077</v>
+        <v>0.0174229504396127</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>15.568867</v>
       </c>
       <c r="I9">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313545</v>
       </c>
       <c r="J9">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313544</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4574283333333333</v>
+        <v>2.050074333333333</v>
       </c>
       <c r="N9">
-        <v>1.372285</v>
+        <v>6.150223</v>
       </c>
       <c r="O9">
-        <v>0.007923466662817383</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="P9">
-        <v>0.007923466662817385</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="Q9">
-        <v>2.373880294566111</v>
+        <v>10.63911154526011</v>
       </c>
       <c r="R9">
-        <v>21.364922651095</v>
+        <v>95.75200390734101</v>
       </c>
       <c r="S9">
-        <v>0.0004435131118529331</v>
+        <v>0.001019163332736157</v>
       </c>
       <c r="T9">
-        <v>0.0004435131118529331</v>
+        <v>0.001019163332736157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.51765933333333</v>
+        <v>51.18420533333333</v>
       </c>
       <c r="H10">
-        <v>130.552978</v>
+        <v>153.552616</v>
       </c>
       <c r="I10">
-        <v>0.4693761332092086</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="J10">
-        <v>0.4693761332092085</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.59985066666667</v>
+        <v>39.02618766666667</v>
       </c>
       <c r="N10">
-        <v>73.79955200000001</v>
+        <v>117.078563</v>
       </c>
       <c r="O10">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="P10">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="Q10">
-        <v>1070.527920962873</v>
+        <v>1997.524402907867</v>
       </c>
       <c r="R10">
-        <v>9634.751288665857</v>
+        <v>17977.71962617081</v>
       </c>
       <c r="S10">
-        <v>0.2000072078775461</v>
+        <v>0.1913509054801072</v>
       </c>
       <c r="T10">
-        <v>0.2000072078775461</v>
+        <v>0.1913509054801072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.51765933333333</v>
+        <v>51.18420533333333</v>
       </c>
       <c r="H11">
-        <v>130.552978</v>
+        <v>153.552616</v>
       </c>
       <c r="I11">
-        <v>0.4693761332092086</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="J11">
-        <v>0.4693761332092085</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.732698000000001</v>
       </c>
       <c r="O11">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322009</v>
       </c>
       <c r="P11">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322008</v>
       </c>
       <c r="Q11">
-        <v>112.1696390971827</v>
+        <v>131.9306674042187</v>
       </c>
       <c r="R11">
-        <v>1009.526751874644</v>
+        <v>1187.376006637968</v>
       </c>
       <c r="S11">
-        <v>0.02095670359002024</v>
+        <v>0.01263816984245198</v>
       </c>
       <c r="T11">
-        <v>0.02095670359002024</v>
+        <v>0.01263816984245198</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.51765933333333</v>
+        <v>51.18420533333333</v>
       </c>
       <c r="H12">
-        <v>130.552978</v>
+        <v>153.552616</v>
       </c>
       <c r="I12">
-        <v>0.4693761332092086</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="J12">
-        <v>0.4693761332092085</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.09598833333334</v>
+        <v>35.04673133333333</v>
       </c>
       <c r="N12">
-        <v>90.28796500000001</v>
+        <v>105.140194</v>
       </c>
       <c r="O12">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="P12">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="Q12">
-        <v>1309.706967589975</v>
+        <v>1793.8390928275</v>
       </c>
       <c r="R12">
-        <v>11787.36270830977</v>
+        <v>16144.55183544751</v>
       </c>
       <c r="S12">
-        <v>0.2446931355978369</v>
+        <v>0.171839069499462</v>
       </c>
       <c r="T12">
-        <v>0.2446931355978368</v>
+        <v>0.171839069499462</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.51765933333333</v>
+        <v>51.18420533333333</v>
       </c>
       <c r="H13">
-        <v>130.552978</v>
+        <v>153.552616</v>
       </c>
       <c r="I13">
-        <v>0.4693761332092086</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="J13">
-        <v>0.4693761332092085</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4574283333333333</v>
+        <v>2.050074333333333</v>
       </c>
       <c r="N13">
-        <v>1.372285</v>
+        <v>6.150223</v>
       </c>
       <c r="O13">
-        <v>0.007923466662817383</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="P13">
-        <v>0.007923466662817385</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="Q13">
-        <v>19.90621037941445</v>
+        <v>104.9314256259298</v>
       </c>
       <c r="R13">
-        <v>179.15589341473</v>
+        <v>944.382830633368</v>
       </c>
       <c r="S13">
-        <v>0.003719086143805295</v>
+        <v>0.01005180376150142</v>
       </c>
       <c r="T13">
-        <v>0.003719086143805296</v>
+        <v>0.01005180376150142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01652833333333334</v>
+        <v>0.103602</v>
       </c>
       <c r="H14">
-        <v>0.049585</v>
+        <v>0.310806</v>
       </c>
       <c r="I14">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654878</v>
       </c>
       <c r="J14">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654877</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.59985066666667</v>
+        <v>39.02618766666667</v>
       </c>
       <c r="N14">
-        <v>73.79955200000001</v>
+        <v>117.078563</v>
       </c>
       <c r="O14">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="P14">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="Q14">
-        <v>0.406594531768889</v>
+        <v>4.043191094642</v>
       </c>
       <c r="R14">
-        <v>3.659350785920001</v>
+        <v>36.38871985177801</v>
       </c>
       <c r="S14">
-        <v>7.596423731221303E-05</v>
+        <v>0.0003873135546492429</v>
       </c>
       <c r="T14">
-        <v>7.596423731221303E-05</v>
+        <v>0.0003873135546492428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01652833333333334</v>
+        <v>0.103602</v>
       </c>
       <c r="H15">
-        <v>0.049585</v>
+        <v>0.310806</v>
       </c>
       <c r="I15">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654878</v>
       </c>
       <c r="J15">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654877</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.732698000000001</v>
       </c>
       <c r="O15">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322009</v>
       </c>
       <c r="P15">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322008</v>
       </c>
       <c r="Q15">
-        <v>0.04260287003666668</v>
+        <v>0.2670409927320001</v>
       </c>
       <c r="R15">
-        <v>0.3834258303300001</v>
+        <v>2.403368934588001</v>
       </c>
       <c r="S15">
-        <v>7.959513167988813E-06</v>
+        <v>2.558093192012523E-05</v>
       </c>
       <c r="T15">
-        <v>7.959513167988813E-06</v>
+        <v>2.558093192012522E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01652833333333334</v>
+        <v>0.103602</v>
       </c>
       <c r="H16">
-        <v>0.049585</v>
+        <v>0.310806</v>
       </c>
       <c r="I16">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654878</v>
       </c>
       <c r="J16">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654877</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.09598833333334</v>
+        <v>35.04673133333333</v>
       </c>
       <c r="N16">
-        <v>90.28796500000001</v>
+        <v>105.140194</v>
       </c>
       <c r="O16">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="P16">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="Q16">
-        <v>0.4974365271694446</v>
+        <v>3.630911459596001</v>
       </c>
       <c r="R16">
-        <v>4.476928744525001</v>
+        <v>32.678203136364</v>
       </c>
       <c r="S16">
-        <v>9.293628773920993E-05</v>
+        <v>0.0003478196283862059</v>
       </c>
       <c r="T16">
-        <v>9.293628773920992E-05</v>
+        <v>0.0003478196283862059</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.01652833333333334</v>
+        <v>0.103602</v>
       </c>
       <c r="H17">
-        <v>0.049585</v>
+        <v>0.310806</v>
       </c>
       <c r="I17">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654878</v>
       </c>
       <c r="J17">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654877</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4574283333333333</v>
+        <v>2.050074333333333</v>
       </c>
       <c r="N17">
-        <v>1.372285</v>
+        <v>6.150223</v>
       </c>
       <c r="O17">
-        <v>0.007923466662817383</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="P17">
-        <v>0.007923466662817385</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="Q17">
-        <v>0.007560527969444446</v>
+        <v>0.212391801082</v>
       </c>
       <c r="R17">
-        <v>0.06804475172500001</v>
+        <v>1.911526209738</v>
       </c>
       <c r="S17">
-        <v>1.412536805101341E-06</v>
+        <v>2.034586580991373E-05</v>
       </c>
       <c r="T17">
-        <v>1.412536805101341E-06</v>
+        <v>2.034586580991373E-05</v>
       </c>
     </row>
   </sheetData>
